--- a/download/promoter/th-kim310.xlsx
+++ b/download/promoter/th-kim310.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O/N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://https://2019.igem.org/Team:Aboa/Contribution</t>
   </si>
   <si>
@@ -262,12 +258,49 @@
   </si>
   <si>
     <t>https://2019.igem.org/Team:Stuttgart/Contribution</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,11 +352,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,16 +719,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>2019</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -902,22 +944,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -944,7 +986,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,8 +1034,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -1001,7 +1043,7 @@
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
@@ -1013,22 +1055,22 @@
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="I2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -1036,7 +1078,7 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" t="s">
@@ -1048,22 +1090,22 @@
       <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>48</v>
       </c>
-      <c r="I3">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -1071,7 +1113,7 @@
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.5</v>
       </c>
       <c r="E4" t="s">
@@ -1083,22 +1125,22 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
         <v>48</v>
       </c>
-      <c r="I4">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -1106,7 +1148,7 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
@@ -1118,22 +1160,22 @@
       <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4">
+        <v>16</v>
+      </c>
+      <c r="I5" s="3">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="I5">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -1141,7 +1183,7 @@
       <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -1153,22 +1195,22 @@
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="I6">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -1176,7 +1218,7 @@
       <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -1188,22 +1230,22 @@
       <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
         <v>48</v>
       </c>
-      <c r="I7">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -1211,7 +1253,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0</v>
       </c>
       <c r="E8" t="s">
@@ -1221,24 +1263,24 @@
         <v>5000</v>
       </c>
       <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -1246,7 +1288,7 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
       <c r="E9" t="s">
@@ -1256,32 +1298,32 @@
         <v>15000</v>
       </c>
       <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" t="s">
@@ -1291,32 +1333,32 @@
         <v>15000</v>
       </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -1326,32 +1368,32 @@
         <v>15000</v>
       </c>
       <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <v>16</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1361,23 +1403,24 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="4">
+        <v>16</v>
+      </c>
+      <c r="I12" s="3">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
         <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>